--- a/data/financial_statements/sofp/CNP.xlsx
+++ b/data/financial_statements/sofp/CNP.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>582000000</v>
+        <v>566000000</v>
       </c>
       <c r="C2">
-        <v>1235000000</v>
+        <v>1213000000</v>
       </c>
       <c r="D2">
-        <v>867000000</v>
+        <v>845000000</v>
       </c>
       <c r="E2">
-        <v>1693000000</v>
+        <v>1669000000</v>
       </c>
       <c r="F2">
-        <v>1067000000</v>
+        <v>1044000000</v>
       </c>
       <c r="G2">
         <v>1059000000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1088000000</v>
+        <v>773000000</v>
       </c>
       <c r="C3">
         <v>1102000000</v>
       </c>
       <c r="D3">
-        <v>1375000000</v>
+        <v>943000000</v>
       </c>
       <c r="E3">
-        <v>1204000000</v>
+        <v>691000000</v>
       </c>
       <c r="F3">
-        <v>1320000000</v>
+        <v>664000000</v>
       </c>
       <c r="G3">
         <v>729000000</v>
@@ -867,8 +978,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>882000000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1531000000</v>
+        <v>1721000000</v>
       </c>
       <c r="C5">
-        <v>1470000000</v>
+        <v>1376000000</v>
       </c>
       <c r="D5">
-        <v>1434000000</v>
+        <v>1788000000</v>
       </c>
       <c r="E5">
-        <v>3850000000</v>
+        <v>4255000000</v>
       </c>
       <c r="F5">
-        <v>4728000000</v>
+        <v>3829000000</v>
       </c>
       <c r="G5">
         <v>2468000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>4083000000</v>
@@ -1233,20 +1344,20 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>25925000000</v>
+        <v>25910000000</v>
       </c>
       <c r="C7">
-        <v>25030000000</v>
+        <v>25015000000</v>
       </c>
       <c r="D7">
-        <v>24229000000</v>
+        <v>24213000000</v>
       </c>
       <c r="E7">
-        <v>23685000000</v>
+        <v>23484000000</v>
       </c>
       <c r="F7">
         <v>22614000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>6000000</v>
@@ -1477,8 +1588,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="O9">
         <v>4000000</v>
@@ -1521,8 +1632,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>4294000000</v>
@@ -1643,23 +1754,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>2411000000</v>
+        <v>220000000</v>
       </c>
       <c r="C11">
-        <v>2443000000</v>
+        <v>235000000</v>
       </c>
       <c r="D11">
-        <v>2485000000</v>
+        <v>237000000</v>
       </c>
       <c r="E11">
-        <v>2340000000</v>
+        <v>225000000</v>
       </c>
       <c r="F11">
-        <v>2535000000</v>
+        <v>237000000</v>
       </c>
       <c r="G11">
         <v>588000000</v>
@@ -1765,8 +1876,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>32636000000</v>
@@ -1887,8 +1998,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>36719000000</v>
@@ -1900,7 +2011,7 @@
         <v>35202000000</v>
       </c>
       <c r="E13">
-        <v>38477000000</v>
+        <v>37679000000</v>
       </c>
       <c r="F13">
         <v>37160000000</v>
@@ -2009,8 +2120,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1028000000</v>
@@ -2131,8 +2242,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>113000000</v>
@@ -2154,8 +2265,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>118000000</v>
@@ -2276,20 +2387,20 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2158000000</v>
+        <v>2153000000</v>
       </c>
       <c r="C17">
-        <v>1783000000</v>
+        <v>1779000000</v>
       </c>
       <c r="D17">
-        <v>1777000000</v>
+        <v>1773000000</v>
       </c>
       <c r="E17">
-        <v>1454000000</v>
+        <v>545000000</v>
       </c>
       <c r="F17">
         <v>1098000000</v>
@@ -2398,8 +2509,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>273000000</v>
@@ -2520,8 +2631,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AD19">
         <v>741000000</v>
@@ -2555,23 +2666,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1152000000</v>
+        <v>926000000</v>
       </c>
       <c r="C20">
-        <v>1253000000</v>
+        <v>1113000000</v>
       </c>
       <c r="D20">
-        <v>1303000000</v>
+        <v>1191000000</v>
       </c>
       <c r="E20">
-        <v>1259000000</v>
+        <v>1901000000</v>
       </c>
       <c r="F20">
-        <v>2239000000</v>
+        <v>2006000000</v>
       </c>
       <c r="G20">
         <v>1921000000</v>
@@ -2677,8 +2788,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>4611000000</v>
@@ -2799,20 +2910,20 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>13445000000</v>
+        <v>13435000000</v>
       </c>
       <c r="C22">
-        <v>13248000000</v>
+        <v>13237000000</v>
       </c>
       <c r="D22">
-        <v>12118000000</v>
+        <v>12106000000</v>
       </c>
       <c r="E22">
-        <v>15575000000</v>
+        <v>15558000000</v>
       </c>
       <c r="F22">
         <v>15394000000</v>
@@ -2921,8 +3032,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>3974000000</v>
@@ -3043,20 +3154,20 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>4698000000</v>
+        <v>4710000000</v>
       </c>
       <c r="C24">
-        <v>4671000000</v>
+        <v>4684000000</v>
       </c>
       <c r="D24">
-        <v>4576000000</v>
+        <v>4589000000</v>
       </c>
       <c r="E24">
-        <v>4495000000</v>
+        <v>4515000000</v>
       </c>
       <c r="F24">
         <v>4643000000</v>
@@ -3165,8 +3276,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>22119000000</v>
@@ -3287,20 +3398,20 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>26728000000</v>
+        <v>26730000000</v>
       </c>
       <c r="C26">
-        <v>26191000000</v>
+        <v>26193000000</v>
       </c>
       <c r="D26">
-        <v>25250000000</v>
+        <v>25251000000</v>
       </c>
       <c r="E26">
-        <v>29059000000</v>
+        <v>28264000000</v>
       </c>
       <c r="F26">
         <v>28294000000</v>
@@ -3409,8 +3520,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>8557000000</v>
@@ -3531,8 +3642,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>790000000</v>
@@ -3587,8 +3698,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>6000000</v>
@@ -3709,8 +3820,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>719000000</v>
@@ -3831,16 +3942,16 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="F31">
         <v>1000000</v>
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>9199000000</v>
@@ -3855,7 +3966,7 @@
         <v>8625000000</v>
       </c>
       <c r="F32">
-        <v>8075000000</v>
+        <v>8076000000</v>
       </c>
       <c r="G32">
         <v>7131000000</v>
@@ -3961,8 +4072,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>9989000000</v>
@@ -3977,7 +4088,7 @@
         <v>9415000000</v>
       </c>
       <c r="F33">
-        <v>8865000000</v>
+        <v>8866000000</v>
       </c>
       <c r="G33">
         <v>8870000000</v>
@@ -4083,8 +4194,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>36719000000</v>
@@ -4205,8 +4316,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>629532000</v>
@@ -4327,8 +4438,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>800000</v>
@@ -4383,8 +4494,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>5695000000</v>
@@ -4505,23 +4616,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>15021000000</v>
+        <v>15022000000</v>
       </c>
       <c r="C38">
-        <v>13796000000</v>
+        <v>13803000000</v>
       </c>
       <c r="D38">
-        <v>13028000000</v>
+        <v>13034000000</v>
       </c>
       <c r="E38">
-        <v>15336000000</v>
+        <v>14434000000</v>
       </c>
       <c r="F38">
-        <v>15425000000</v>
+        <v>15448000000</v>
       </c>
       <c r="G38">
         <v>15087000000</v>
@@ -4627,20 +4738,20 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>15603000000</v>
+        <v>15588000000</v>
       </c>
       <c r="C39">
-        <v>15031000000</v>
+        <v>15016000000</v>
       </c>
       <c r="D39">
-        <v>13895000000</v>
+        <v>13879000000</v>
       </c>
       <c r="E39">
-        <v>17029000000</v>
+        <v>16103000000</v>
       </c>
       <c r="F39">
         <v>16492000000</v>
